--- a/new_results/sceanrio1_no_ampdu/results.xlsx
+++ b/new_results/sceanrio1_no_ampdu/results.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MetodySymulacyjne\results\sceanrio1_no_ampdu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder\Studia-materialy_i_ksiazki\magisterka\MS_project2\new_results\sceanrio1_no_ampdu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31174864-0E2D-4752-8B1C-F7BE8E40768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ax" sheetId="1" r:id="rId1"/>
     <sheet name="legacy" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="10">
   <si>
     <t>Sta_num</t>
   </si>
@@ -40,11 +39,23 @@
   <si>
     <t>333</t>
   </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,23 +180,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,23 +215,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -413,21 +390,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +415,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>48.560809499999998</v>
+      </c>
+      <c r="K1">
+        <v>0.77080650000000006</v>
+      </c>
+      <c r="L1">
+        <v>4.2387649492063497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -452,16 +439,31 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>45.405546509999994</v>
+        <v>604.17562212000007</v>
       </c>
       <c r="D2">
-        <v>0.72072296047619033</v>
+        <v>5.2997861589473674</v>
       </c>
       <c r="E2">
-        <v>3.714030131746032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.312967361403508</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>43.47075705999999</v>
+      </c>
+      <c r="K2">
+        <v>0.6900120168253967</v>
+      </c>
+      <c r="L2">
+        <v>4.0810746999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -469,131 +471,2085 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>60.15999034999998</v>
+        <v>607.81686167999987</v>
       </c>
       <c r="D3">
-        <v>0.95492048174603161</v>
+        <v>5.3317268568421046</v>
       </c>
       <c r="E3">
-        <v>3.6854773520634918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.373361028070176</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>40.849711990000003</v>
+      </c>
+      <c r="K3">
+        <v>0.64840812682539672</v>
+      </c>
+      <c r="L3">
+        <v>3.896807311111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>45.601412179999983</v>
+      </c>
+      <c r="D4">
+        <v>0.72383193936507928</v>
+      </c>
+      <c r="E4">
+        <v>3.3591238142857152</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>38.492223590000002</v>
+      </c>
+      <c r="K4">
+        <v>0.6109876760317462</v>
+      </c>
+      <c r="L4">
+        <v>4.0874651269841271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>53.714723899999989</v>
+      </c>
+      <c r="D5">
+        <v>0.85261466507936501</v>
+      </c>
+      <c r="E5">
+        <v>3.446154480952381</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>40.74611672999999</v>
+      </c>
+      <c r="K5">
+        <v>0.64676375761904781</v>
+      </c>
+      <c r="L5">
+        <v>4.085104798412698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>43.258754190000012</v>
+      </c>
+      <c r="D6">
+        <v>0.68664689190476214</v>
+      </c>
+      <c r="E6">
+        <v>3.1674268777777779</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>40.759653949999993</v>
+      </c>
+      <c r="K6">
+        <v>0.64697863412698386</v>
+      </c>
+      <c r="L6">
+        <v>4.0424549238095242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>54.420230289999999</v>
+      </c>
+      <c r="D7">
+        <v>0.86381317920634915</v>
+      </c>
+      <c r="E7">
+        <v>3.3096140904761899</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>41.164172960000002</v>
+      </c>
+      <c r="K7">
+        <v>0.65339957079365085</v>
+      </c>
+      <c r="L7">
+        <v>3.8914325825396818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>43.391219520000007</v>
+      </c>
+      <c r="D8">
+        <v>0.68874951619047642</v>
+      </c>
+      <c r="E8">
+        <v>3.4406951853968248</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>40.60093916000001</v>
+      </c>
+      <c r="K8">
+        <v>0.64445935174603186</v>
+      </c>
+      <c r="L8">
+        <v>4.0683140752380949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>35.896274349999999</v>
+      </c>
+      <c r="D9">
+        <v>0.56978213253968257</v>
+      </c>
+      <c r="E9">
+        <v>3.3869331888888889</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>43.411623831000007</v>
+      </c>
+      <c r="K9">
+        <v>0.68907339414285729</v>
+      </c>
+      <c r="L9">
+        <v>4.3138733920634911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>37.088039209999991</v>
+      </c>
+      <c r="D10">
+        <v>0.58869903507936494</v>
+      </c>
+      <c r="E10">
+        <v>3.1605222111111111</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>43.630068999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.69254077777777778</v>
+      </c>
+      <c r="L10">
+        <v>4.2124797587301597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>40.800334969999987</v>
+      </c>
+      <c r="D11">
+        <v>0.64762436460317474</v>
+      </c>
+      <c r="E11">
+        <v>3.2985235015873009</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>37.778444389999997</v>
+      </c>
+      <c r="K11">
+        <v>0.59965784746031747</v>
+      </c>
+      <c r="L11">
+        <v>3.853965033333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>55.131214979999982</v>
       </c>
-      <c r="D4">
+      <c r="D12">
         <v>0.87509865047619051</v>
       </c>
-      <c r="E4">
+      <c r="E12">
         <v>3.7793759253968262</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>37.094777919999999</v>
+      </c>
+      <c r="K12">
+        <v>0.58880599873015871</v>
+      </c>
+      <c r="L12">
+        <v>3.7929595603174611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>36.112430029999977</v>
+      </c>
+      <c r="D13">
+        <v>0.57321317507936509</v>
+      </c>
+      <c r="E13">
+        <v>3.2516979523809519</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>45.215981579999998</v>
+      </c>
+      <c r="K13">
+        <v>0.71771399333333319</v>
+      </c>
+      <c r="L13">
+        <v>3.925467687301587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>34.375329950000001</v>
+      </c>
+      <c r="D14">
+        <v>0.545640157936508</v>
+      </c>
+      <c r="E14">
+        <v>3.134934888888889</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>37.076783590000012</v>
+      </c>
+      <c r="K14">
+        <v>0.58852037444444449</v>
+      </c>
+      <c r="L14">
+        <v>3.9936407523809532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
         <v>56.970808920000003</v>
       </c>
-      <c r="D5">
+      <c r="D15">
         <v>0.90429855428571426</v>
       </c>
-      <c r="E5">
+      <c r="E15">
         <v>3.4598924807936511</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>39.112345910000002</v>
+      </c>
+      <c r="K15">
+        <v>0.62083088746031745</v>
+      </c>
+      <c r="L15">
+        <v>4.0102177571428568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>51.406129808999999</v>
       </c>
-      <c r="D6">
+      <c r="D16">
         <v>0.81597031442857126</v>
       </c>
-      <c r="E6">
+      <c r="E16">
         <v>3.3770879666666671</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>45.846604200000002</v>
+      </c>
+      <c r="K16">
+        <v>0.72772387619047618</v>
+      </c>
+      <c r="L16">
+        <v>4.1197867468253966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>47.263164160000002</v>
       </c>
-      <c r="D7">
+      <c r="D17">
         <v>0.75020895492063489</v>
       </c>
-      <c r="E7">
+      <c r="E17">
         <v>3.2773796968253959</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>43.752192860000008</v>
+      </c>
+      <c r="K17">
+        <v>0.69447925174603176</v>
+      </c>
+      <c r="L17">
+        <v>4.1063751174603178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
         <v>58.614585699999992</v>
       </c>
-      <c r="D8">
+      <c r="D18">
         <v>0.93039024920634916</v>
       </c>
-      <c r="E8">
+      <c r="E18">
         <v>3.515681649206349</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>32.750147300000002</v>
+      </c>
+      <c r="K18">
+        <v>0.51984360793650808</v>
+      </c>
+      <c r="L18">
+        <v>3.657664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>49.874100199999987</v>
       </c>
-      <c r="D9">
+      <c r="D19">
         <v>0.79165238412698402</v>
       </c>
-      <c r="E9">
+      <c r="E19">
         <v>3.330340566666667</v>
       </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>37.358802806000007</v>
+      </c>
+      <c r="K19">
+        <v>0.59299686993650791</v>
+      </c>
+      <c r="L19">
+        <v>3.765103668253968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>47.023634189999989</v>
+      </c>
+      <c r="D20">
+        <v>0.74640689190476184</v>
+      </c>
+      <c r="E20">
+        <v>3.1615470253968261</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>32.430210971000008</v>
+      </c>
+      <c r="K20">
+        <v>0.51476525350793656</v>
+      </c>
+      <c r="L20">
+        <v>3.9480717015873008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>54.593416430000012</v>
+      </c>
+      <c r="D21">
+        <v>0.86656216555555565</v>
+      </c>
+      <c r="E21">
+        <v>3.3287640761904771</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>33.009148330000002</v>
+      </c>
+      <c r="K21">
+        <v>0.52395473539682547</v>
+      </c>
+      <c r="L21">
+        <v>3.80316383968254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>38.083660000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.60450253968253964</v>
+      </c>
+      <c r="E22">
+        <v>4.4749906587301584</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>31.754521390000011</v>
+      </c>
+      <c r="K22">
+        <v>0.50404002206349208</v>
+      </c>
+      <c r="L22">
+        <v>3.7624244412698409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>34.03026552</v>
+      </c>
+      <c r="D23">
+        <v>0.54016294476190474</v>
+      </c>
+      <c r="E23">
+        <v>4.3159475238095251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>30.620281120000008</v>
+      </c>
+      <c r="D24">
+        <v>0.48603620825396832</v>
+      </c>
+      <c r="E24">
+        <v>4.1406003380952381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>27.184555765999999</v>
+      </c>
+      <c r="D25">
+        <v>0.43150088517460311</v>
+      </c>
+      <c r="E25">
+        <v>4.2704102158730164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>30.487979450000001</v>
+      </c>
+      <c r="D26">
+        <v>0.48393618174603159</v>
+      </c>
+      <c r="E26">
+        <v>3.8809612873015871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>37.358651289999997</v>
+      </c>
+      <c r="D27">
+        <v>0.5929944649206349</v>
+      </c>
+      <c r="E27">
+        <v>3.9662477253968249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>28.953824040000001</v>
+      </c>
+      <c r="D28">
+        <v>0.45958450857142857</v>
+      </c>
+      <c r="E28">
+        <v>3.6645976079365079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>37.509274590000011</v>
+      </c>
+      <c r="D29">
+        <v>0.59538531095238101</v>
+      </c>
+      <c r="E29">
+        <v>4.1099220690476193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>35.658542887000003</v>
+      </c>
+      <c r="D30">
+        <v>0.56600861725396834</v>
+      </c>
+      <c r="E30">
+        <v>3.866940903174604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>31.092189312999999</v>
+      </c>
+      <c r="D31">
+        <v>0.49352681449206348</v>
+      </c>
+      <c r="E31">
+        <v>3.6520012777777779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>28.826322959999992</v>
+      </c>
+      <c r="D32">
+        <v>0.45756068190476179</v>
+      </c>
+      <c r="E32">
+        <v>3.7173515349206339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>38.146908689999997</v>
+      </c>
+      <c r="D33">
+        <v>0.60550648714285704</v>
+      </c>
+      <c r="E33">
+        <v>4.4233142984126976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>33.645675439999998</v>
+      </c>
+      <c r="D34">
+        <v>0.53405834031746025</v>
+      </c>
+      <c r="E34">
+        <v>3.7756596914285709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>27.559474730000002</v>
+      </c>
+      <c r="D35">
+        <v>0.43745197984126982</v>
+      </c>
+      <c r="E35">
+        <v>4.0204754920634924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>32.954436969999989</v>
+      </c>
+      <c r="D36">
+        <v>0.5230863011111111</v>
+      </c>
+      <c r="E36">
+        <v>4.2653966619047621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>35.815335527000002</v>
+      </c>
+      <c r="D37">
+        <v>0.5684973893174603</v>
+      </c>
+      <c r="E37">
+        <v>4.2566819984126996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>33.154856870999993</v>
+      </c>
+      <c r="D38">
+        <v>0.52626756938095243</v>
+      </c>
+      <c r="E38">
+        <v>4.1061792095238099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>35.10719043000001</v>
+      </c>
+      <c r="D39">
+        <v>0.55725699095238101</v>
+      </c>
+      <c r="E39">
+        <v>3.9344392793650789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>32.435706332000002</v>
+      </c>
+      <c r="D40">
+        <v>0.51485248146031748</v>
+      </c>
+      <c r="E40">
+        <v>3.900870088888889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>33.50005058</v>
+      </c>
+      <c r="D41">
+        <v>0.53174683460317462</v>
+      </c>
+      <c r="E41">
+        <v>4.095582174603174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>35.580292569999997</v>
+      </c>
+      <c r="D42">
+        <v>0.56476654873015886</v>
+      </c>
+      <c r="E42">
+        <v>3.8951260968253969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>39.004853660000002</v>
+      </c>
+      <c r="D43">
+        <v>0.61912466126984134</v>
+      </c>
+      <c r="E43">
+        <v>3.811516566031746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>34.994391764000007</v>
+      </c>
+      <c r="D44">
+        <v>0.55546653593650797</v>
+      </c>
+      <c r="E44">
+        <v>3.5018436215873021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>42.49366046399998</v>
+      </c>
+      <c r="D45">
+        <v>0.67450254704761881</v>
+      </c>
+      <c r="E45">
+        <v>3.396259834920635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>40.589988493999989</v>
+      </c>
+      <c r="D46">
+        <v>0.64428553165079372</v>
+      </c>
+      <c r="E46">
+        <v>3.295665150793651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>32.715251739999992</v>
+      </c>
+      <c r="D47">
+        <v>0.51928971015873016</v>
+      </c>
+      <c r="E47">
+        <v>3.2979280174603169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>40.459449169999999</v>
+      </c>
+      <c r="D48">
+        <v>0.64221347888888891</v>
+      </c>
+      <c r="E48">
+        <v>3.2561022730158728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>36.411907837000001</v>
+      </c>
+      <c r="D49">
+        <v>0.57796679106349214</v>
+      </c>
+      <c r="E49">
+        <v>3.3018801206349209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>30.473002397000009</v>
+      </c>
+      <c r="D50">
+        <v>0.48369845074603179</v>
+      </c>
+      <c r="E50">
+        <v>3.126239495238095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>25.445265467999999</v>
+      </c>
+      <c r="D51">
+        <v>0.40389310266666673</v>
+      </c>
+      <c r="E51">
+        <v>3.4064118190476198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>39.730796540000021</v>
+      </c>
+      <c r="D52">
+        <v>0.63064756412698419</v>
+      </c>
+      <c r="E52">
+        <v>3.234765792063492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>37.097369639999989</v>
+      </c>
+      <c r="D53">
+        <v>0.58884713714285708</v>
+      </c>
+      <c r="E53">
+        <v>3.2616214809523809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>46.591307099999987</v>
+      </c>
+      <c r="D54">
+        <v>0.73954455714285705</v>
+      </c>
+      <c r="E54">
+        <v>3.7168614053968261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>42.051560260000009</v>
+      </c>
+      <c r="D55">
+        <v>0.66748508349206359</v>
+      </c>
+      <c r="E55">
+        <v>3.201991180317461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>32.590819911999994</v>
+      </c>
+      <c r="D56">
+        <v>0.51731460177777777</v>
+      </c>
+      <c r="E56">
+        <v>3.50619526031746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>47.495338693999997</v>
+      </c>
+      <c r="D57">
+        <v>0.75389426498412693</v>
+      </c>
+      <c r="E57">
+        <v>3.5822362279365079</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>42.586824380000003</v>
+      </c>
+      <c r="D58">
+        <v>0.67598133936507943</v>
+      </c>
+      <c r="E58">
+        <v>3.5015375269841269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>42.407307759999988</v>
+      </c>
+      <c r="D59">
+        <v>0.67313186920634926</v>
+      </c>
+      <c r="E59">
+        <v>3.128753787460318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>45.297769715000001</v>
+      </c>
+      <c r="D60">
+        <v>0.71901221769841284</v>
+      </c>
+      <c r="E60">
+        <v>3.9002320428571422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>32.773721829999999</v>
+      </c>
+      <c r="D61">
+        <v>0.52021780682539687</v>
+      </c>
+      <c r="E61">
+        <v>3.433576220634921</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>45.833291684999992</v>
+      </c>
+      <c r="D62">
+        <v>0.72751256642857143</v>
+      </c>
+      <c r="E62">
+        <v>3.626425850476191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>39.390961249999997</v>
+      </c>
+      <c r="D63">
+        <v>0.62525335317460329</v>
+      </c>
+      <c r="E63">
+        <v>3.7264159739682539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>48.560809499999998</v>
+      </c>
+      <c r="D64">
+        <v>0.77080650000000006</v>
+      </c>
+      <c r="E64">
+        <v>4.2387649492063497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>43.47075705999999</v>
+      </c>
+      <c r="D65">
+        <v>0.6900120168253967</v>
+      </c>
+      <c r="E65">
+        <v>4.0810746999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>37.778444389999997</v>
+      </c>
+      <c r="D66">
+        <v>0.59965784746031747</v>
+      </c>
+      <c r="E66">
+        <v>3.853965033333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>37.094777919999999</v>
+      </c>
+      <c r="D67">
+        <v>0.58880599873015871</v>
+      </c>
+      <c r="E67">
+        <v>3.7929595603174611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>45.215981579999998</v>
+      </c>
+      <c r="D68">
+        <v>0.71771399333333319</v>
+      </c>
+      <c r="E68">
+        <v>3.925467687301587</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>37.076783590000012</v>
+      </c>
+      <c r="D69">
+        <v>0.58852037444444449</v>
+      </c>
+      <c r="E69">
+        <v>3.9936407523809532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>39.112345910000002</v>
+      </c>
+      <c r="D70">
+        <v>0.62083088746031745</v>
+      </c>
+      <c r="E70">
+        <v>4.0102177571428568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>45.846604200000002</v>
+      </c>
+      <c r="D71">
+        <v>0.72772387619047618</v>
+      </c>
+      <c r="E71">
+        <v>4.1197867468253966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>43.752192860000008</v>
+      </c>
+      <c r="D72">
+        <v>0.69447925174603176</v>
+      </c>
+      <c r="E72">
+        <v>4.1063751174603178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>32.750147300000002</v>
+      </c>
+      <c r="D73">
+        <v>0.51984360793650808</v>
+      </c>
+      <c r="E73">
+        <v>3.657664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>37.358802806000007</v>
+      </c>
+      <c r="D74">
+        <v>0.59299686993650791</v>
+      </c>
+      <c r="E74">
+        <v>3.765103668253968</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>32.430210971000008</v>
+      </c>
+      <c r="D75">
+        <v>0.51476525350793656</v>
+      </c>
+      <c r="E75">
+        <v>3.9480717015873008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>40.849711990000003</v>
+      </c>
+      <c r="D76">
+        <v>0.64840812682539672</v>
+      </c>
+      <c r="E76">
+        <v>3.896807311111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>33.009148330000002</v>
+      </c>
+      <c r="D77">
+        <v>0.52395473539682547</v>
+      </c>
+      <c r="E77">
+        <v>3.80316383968254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>31.754521390000011</v>
+      </c>
+      <c r="D78">
+        <v>0.50404002206349208</v>
+      </c>
+      <c r="E78">
+        <v>3.7624244412698409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>38.492223590000002</v>
+      </c>
+      <c r="D79">
+        <v>0.6109876760317462</v>
+      </c>
+      <c r="E79">
+        <v>4.0874651269841271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>40.74611672999999</v>
+      </c>
+      <c r="D80">
+        <v>0.64676375761904781</v>
+      </c>
+      <c r="E80">
+        <v>4.085104798412698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>40.759653949999993</v>
+      </c>
+      <c r="D81">
+        <v>0.64697863412698386</v>
+      </c>
+      <c r="E81">
+        <v>4.0424549238095242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>41.164172960000002</v>
+      </c>
+      <c r="D82">
+        <v>0.65339957079365085</v>
+      </c>
+      <c r="E82">
+        <v>3.8914325825396818</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>40.60093916000001</v>
+      </c>
+      <c r="D83">
+        <v>0.64445935174603186</v>
+      </c>
+      <c r="E83">
+        <v>4.0683140752380949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>43.411623831000007</v>
+      </c>
+      <c r="D84">
+        <v>0.68907339414285729</v>
+      </c>
+      <c r="E84">
+        <v>4.3138733920634911</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>43.630068999999999</v>
+      </c>
+      <c r="D85">
+        <v>0.69254077777777778</v>
+      </c>
+      <c r="E85">
+        <v>4.2124797587301597</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>44.309745850000013</v>
+      </c>
+      <c r="D86">
+        <v>0.70332929920634923</v>
+      </c>
+      <c r="E86">
+        <v>3.702003634920636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>54.606730167999977</v>
+      </c>
+      <c r="D87">
+        <v>0.86677349473015863</v>
+      </c>
+      <c r="E87">
+        <v>4.087811439047619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>41.024604981000003</v>
+      </c>
+      <c r="D88">
+        <v>0.65118420604761895</v>
+      </c>
+      <c r="E88">
+        <v>3.7762169282539682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>35.256622858999997</v>
+      </c>
+      <c r="D89">
+        <v>0.55962893426984139</v>
+      </c>
+      <c r="E89">
+        <v>3.661502025396826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>40.31113281399999</v>
+      </c>
+      <c r="D90">
+        <v>0.63985925101587293</v>
+      </c>
+      <c r="E90">
+        <v>3.753749755555555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>37.485366960000007</v>
+      </c>
+      <c r="D91">
+        <v>0.59500582476190489</v>
+      </c>
+      <c r="E91">
+        <v>3.3783820968253968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>39.771559779999997</v>
+      </c>
+      <c r="D92">
+        <v>0.63129459968253976</v>
+      </c>
+      <c r="E92">
+        <v>3.4930118333333331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>46.996108800000002</v>
+      </c>
+      <c r="D93">
+        <v>0.7459699809523811</v>
+      </c>
+      <c r="E93">
+        <v>2.9803437646031741</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>37.468966937000012</v>
+      </c>
+      <c r="D94">
+        <v>0.59474550693650785</v>
+      </c>
+      <c r="E94">
+        <v>3.4764253904761899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>39.620524970000012</v>
+      </c>
+      <c r="D95">
+        <v>0.6288972217460318</v>
+      </c>
+      <c r="E95">
+        <v>3.264749561904762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>37.8511582</v>
+      </c>
+      <c r="D96">
+        <v>0.60081203492063506</v>
+      </c>
+      <c r="E96">
+        <v>3.603489131746032</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>47.368891329999983</v>
+      </c>
+      <c r="D97">
+        <v>0.75188716396825395</v>
+      </c>
+      <c r="E97">
+        <v>3.9746874999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>40.658219463000002</v>
+      </c>
+      <c r="D98">
+        <v>0.64536856290476186</v>
+      </c>
+      <c r="E98">
+        <v>3.464718447619048</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>34.045651614999997</v>
+      </c>
+      <c r="D99">
+        <v>0.54040716849206338</v>
+      </c>
+      <c r="E99">
+        <v>3.548077185714285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>39.019363259999999</v>
+      </c>
+      <c r="D100">
+        <v>0.61935497238095238</v>
+      </c>
+      <c r="E100">
+        <v>3.7887415</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>39.804145556000009</v>
+      </c>
+      <c r="D101">
+        <v>0.63181183422222209</v>
+      </c>
+      <c r="E101">
+        <v>4.0161332999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>43.647143869999987</v>
+      </c>
+      <c r="D102">
+        <v>0.69281180746031745</v>
+      </c>
+      <c r="E102">
+        <v>3.6718448698412698</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>46.674463289999998</v>
+      </c>
+      <c r="D103">
+        <v>0.74086449666666665</v>
+      </c>
+      <c r="E103">
+        <v>3.246267771111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>40.175448195999998</v>
+      </c>
+      <c r="D104">
+        <v>0.63770552692063498</v>
+      </c>
+      <c r="E104">
+        <v>3.8330793253968261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>41.503877510000002</v>
+      </c>
+      <c r="D105">
+        <v>0.65879170650793639</v>
+      </c>
+      <c r="E105">
+        <v>3.9594373730158732</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>54.857638029999997</v>
+      </c>
+      <c r="D106">
+        <v>0.87075615920634919</v>
+      </c>
+      <c r="E106">
+        <v>3.9148239490476189</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="H1:L106">
+    <sortCondition ref="H1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +2565,40 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>0.24669099999999999</v>
+      </c>
+      <c r="K1">
+        <v>0.24669099999999999</v>
+      </c>
+      <c r="L1">
+        <v>0.57423999999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0.25601099999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.12800549999999999</v>
+      </c>
+      <c r="L2">
+        <v>2.1194799999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -618,118 +2606,1957 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.24669099999999999</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.24669099999999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.57423999999999997</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>0.58754700000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.195849</v>
+      </c>
+      <c r="L3">
+        <v>3.7139799999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2.681953829999999</v>
+      </c>
+      <c r="D4">
+        <v>0.2438139845454545</v>
+      </c>
+      <c r="E4">
+        <v>3.5404572727272718</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1.260195</v>
+      </c>
+      <c r="K4">
+        <v>0.31504874999999999</v>
+      </c>
+      <c r="L4">
+        <v>3.0639725000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4.2122970400000002</v>
+      </c>
+      <c r="D5">
+        <v>0.35102475333333327</v>
+      </c>
+      <c r="E5">
+        <v>3.8504051000000001</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>2.2282229999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.44564460000000011</v>
+      </c>
+      <c r="L5">
+        <v>4.2615726799999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4.29293485</v>
+      </c>
+      <c r="D6">
+        <v>0.30663820357142862</v>
+      </c>
+      <c r="E6">
+        <v>4.080446928571428</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>2.7722730000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.46204549999999989</v>
+      </c>
+      <c r="L6">
+        <v>3.6382769000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>7.0021419100000006</v>
+      </c>
+      <c r="D7">
+        <v>0.46680946066666668</v>
+      </c>
+      <c r="E7">
+        <v>4.0525411733333332</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1.727875</v>
+      </c>
+      <c r="K7">
+        <v>0.24683928571428571</v>
+      </c>
+      <c r="L7">
+        <v>3.6366614285714292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>9.5050049999999988</v>
+      </c>
+      <c r="D8">
+        <v>0.59406281249999993</v>
+      </c>
+      <c r="E8">
+        <v>3.925606893749999</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2.522605</v>
+      </c>
+      <c r="K8">
+        <v>0.315325625</v>
+      </c>
+      <c r="L8">
+        <v>3.096919625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>9.4243970000000008</v>
+      </c>
+      <c r="D9">
+        <v>0.55437629411764711</v>
+      </c>
+      <c r="E9">
+        <v>3.2955810941176469</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>7.2768731999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.8085414666666666</v>
+      </c>
+      <c r="L9">
+        <v>3.25033168888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>9.3281052000000013</v>
+      </c>
+      <c r="D10">
+        <v>0.51822806666666676</v>
+      </c>
+      <c r="E10">
+        <v>3.464136005555555</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2.681953829999999</v>
+      </c>
+      <c r="K10">
+        <v>0.2438139845454545</v>
+      </c>
+      <c r="L10">
+        <v>3.5404572727272718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>7.7397763200000007</v>
+      </c>
+      <c r="D11">
+        <v>0.40735664842105263</v>
+      </c>
+      <c r="E11">
+        <v>3.7226008947368419</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4.2122970400000002</v>
+      </c>
+      <c r="K11">
+        <v>0.35102475333333327</v>
+      </c>
+      <c r="L11">
+        <v>3.8504051000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>0.25601099999999999</v>
       </c>
-      <c r="D4">
+      <c r="D12">
         <v>0.12800549999999999</v>
       </c>
-      <c r="E4">
+      <c r="E12">
         <v>2.1194799999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>4.29293485</v>
+      </c>
+      <c r="K12">
+        <v>0.30663820357142862</v>
+      </c>
+      <c r="L12">
+        <v>4.080446928571428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>10.1446507</v>
+      </c>
+      <c r="D13">
+        <v>0.50723253499999987</v>
+      </c>
+      <c r="E13">
+        <v>3.0736472949999998</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>7.0021419100000006</v>
+      </c>
+      <c r="K13">
+        <v>0.46680946066666668</v>
+      </c>
+      <c r="L13">
+        <v>4.0525411733333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>10.8382627</v>
+      </c>
+      <c r="D14">
+        <v>0.51610774761904765</v>
+      </c>
+      <c r="E14">
+        <v>3.3859342142857138</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>9.5050049999999988</v>
+      </c>
+      <c r="K14">
+        <v>0.59406281249999993</v>
+      </c>
+      <c r="L14">
+        <v>3.925606893749999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
         <v>0.58754700000000004</v>
       </c>
-      <c r="D5">
+      <c r="D15">
         <v>0.195849</v>
       </c>
-      <c r="E5">
+      <c r="E15">
         <v>3.7139799999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>9.4243970000000008</v>
+      </c>
+      <c r="K15">
+        <v>0.55437629411764711</v>
+      </c>
+      <c r="L15">
+        <v>3.2955810941176469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>1.260195</v>
       </c>
-      <c r="D6">
+      <c r="D16">
         <v>0.31504874999999999</v>
       </c>
-      <c r="E6">
+      <c r="E16">
         <v>3.0639725000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>9.3281052000000013</v>
+      </c>
+      <c r="K16">
+        <v>0.51822806666666676</v>
+      </c>
+      <c r="L16">
+        <v>3.464136005555555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
         <v>2.2282229999999998</v>
       </c>
-      <c r="D7">
+      <c r="D17">
         <v>0.44564460000000011</v>
       </c>
-      <c r="E7">
+      <c r="E17">
         <v>4.2615726799999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>7.7397763200000007</v>
+      </c>
+      <c r="K17">
+        <v>0.40735664842105263</v>
+      </c>
+      <c r="L17">
+        <v>3.7226008947368419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
         <v>2.7722730000000002</v>
       </c>
-      <c r="D8">
+      <c r="D18">
         <v>0.46204549999999989</v>
       </c>
-      <c r="E8">
+      <c r="E18">
         <v>3.6382769000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>10.1446507</v>
+      </c>
+      <c r="K18">
+        <v>0.50723253499999987</v>
+      </c>
+      <c r="L18">
+        <v>3.0736472949999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>1.727875</v>
       </c>
-      <c r="D9">
+      <c r="D19">
         <v>0.24683928571428571</v>
       </c>
-      <c r="E9">
+      <c r="E19">
         <v>3.6366614285714292</v>
       </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>10.8382627</v>
+      </c>
+      <c r="K19">
+        <v>0.51610774761904765</v>
+      </c>
+      <c r="L19">
+        <v>3.3859342142857138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2.522605</v>
+      </c>
+      <c r="D20">
+        <v>0.315325625</v>
+      </c>
+      <c r="E20">
+        <v>3.096919625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>7.2768731999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.8085414666666666</v>
+      </c>
+      <c r="E21">
+        <v>3.25033168888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>5.0266599999999997</v>
+      </c>
+      <c r="D23">
+        <v>5.0266599999999997</v>
+      </c>
+      <c r="E23">
+        <v>2.2766800000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3.8889551999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.38889552000000011</v>
+      </c>
+      <c r="E24">
+        <v>4.4978710599999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1.8084275000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.16440250000000001</v>
+      </c>
+      <c r="E25">
+        <v>3.9922281818181831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>3.1853037999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.2654419833333333</v>
+      </c>
+      <c r="E26">
+        <v>3.9782207500000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>2.56224908</v>
+      </c>
+      <c r="D27">
+        <v>0.19709608307692311</v>
+      </c>
+      <c r="E27">
+        <v>4.3350333692307688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>3.1641935350000008</v>
+      </c>
+      <c r="D28">
+        <v>0.22601382392857139</v>
+      </c>
+      <c r="E28">
+        <v>3.8839115928571428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>4.0386302999999986</v>
+      </c>
+      <c r="D29">
+        <v>0.26924202000000003</v>
+      </c>
+      <c r="E29">
+        <v>3.2347376400000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>11.1331717</v>
+      </c>
+      <c r="D30">
+        <v>0.6958232312499999</v>
+      </c>
+      <c r="E30">
+        <v>3.4685681224999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>4.1122363499999999</v>
+      </c>
+      <c r="D31">
+        <v>0.228457575</v>
+      </c>
+      <c r="E31">
+        <v>3.6854662222222232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6.5674558999999988</v>
+      </c>
+      <c r="D32">
+        <v>0.34565557368421063</v>
+      </c>
+      <c r="E32">
+        <v>3.7309261842105261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0.56504500000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.28252250000000001</v>
+      </c>
+      <c r="E33">
+        <v>2.9695200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>4.1133308000000008</v>
+      </c>
+      <c r="D34">
+        <v>0.20566654000000001</v>
+      </c>
+      <c r="E34">
+        <v>3.1862221499999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>8.1541307599999975</v>
+      </c>
+      <c r="D35">
+        <v>0.38829194095238079</v>
+      </c>
+      <c r="E35">
+        <v>3.198175676190476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1.7733179999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.59110600000000002</v>
+      </c>
+      <c r="E36">
+        <v>3.385254666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>0.93530869999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.233827175</v>
+      </c>
+      <c r="E37">
+        <v>3.7518250000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1.7439918999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.34879838000000002</v>
+      </c>
+      <c r="E38">
+        <v>4.4588410600000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1.8022252000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.30037086666666662</v>
+      </c>
+      <c r="E39">
+        <v>4.0338583333333338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>3.2401683000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.46288118571428571</v>
+      </c>
+      <c r="E40">
+        <v>3.7459933857142862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>1.4615182</v>
+      </c>
+      <c r="D41">
+        <v>0.182689775</v>
+      </c>
+      <c r="E41">
+        <v>3.3670187500000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>2.5816963999999998</v>
+      </c>
+      <c r="D42">
+        <v>0.28685515555555552</v>
+      </c>
+      <c r="E42">
+        <v>3.7377601111111112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>3.9536562000000002</v>
+      </c>
+      <c r="D44">
+        <v>0.39536561999999997</v>
+      </c>
+      <c r="E44">
+        <v>4.3616900099999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>1.5555876</v>
+      </c>
+      <c r="D45">
+        <v>0.1414170545454545</v>
+      </c>
+      <c r="E45">
+        <v>3.227084545454546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2.167071</v>
+      </c>
+      <c r="D46">
+        <v>0.18058925000000001</v>
+      </c>
+      <c r="E46">
+        <v>3.5253825000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>3.0314367999999998</v>
+      </c>
+      <c r="D47">
+        <v>0.23318744615384621</v>
+      </c>
+      <c r="E47">
+        <v>3.5272520769230771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>3.1836740100000012</v>
+      </c>
+      <c r="D48">
+        <v>0.22740528642857141</v>
+      </c>
+      <c r="E48">
+        <v>3.7136682285714282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>3.7042224099999999</v>
+      </c>
+      <c r="D49">
+        <v>0.24694816066666669</v>
+      </c>
+      <c r="E49">
+        <v>3.1164595666666668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>4.1144834000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.25715521250000001</v>
+      </c>
+      <c r="E50">
+        <v>3.570037025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>6.0916846900000001</v>
+      </c>
+      <c r="D51">
+        <v>0.35833439352941182</v>
+      </c>
+      <c r="E51">
+        <v>4.3461612823529414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7.5075021400000006</v>
+      </c>
+      <c r="D52">
+        <v>0.41708345222222221</v>
+      </c>
+      <c r="E52">
+        <v>3.7762737555555561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>6.7111863700000001</v>
+      </c>
+      <c r="D53">
+        <v>0.35322033526315788</v>
+      </c>
+      <c r="E53">
+        <v>4.0388940526315791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>0.499255</v>
+      </c>
+      <c r="D54">
+        <v>0.2496275</v>
+      </c>
+      <c r="E54">
+        <v>4.9944349999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7.3118970000000001</v>
+      </c>
+      <c r="D55">
+        <v>0.36559485000000003</v>
+      </c>
+      <c r="E55">
+        <v>3.6282612900000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>14.3001728</v>
+      </c>
+      <c r="D56">
+        <v>0.68096060952380943</v>
+      </c>
+      <c r="E56">
+        <v>3.394745994285715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>1.0188619999999999</v>
+      </c>
+      <c r="D57">
+        <v>0.33962066666666663</v>
+      </c>
+      <c r="E57">
+        <v>6.0819766666666668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>1.0039804000000001</v>
+      </c>
+      <c r="D58">
+        <v>0.25099510000000003</v>
+      </c>
+      <c r="E58">
+        <v>4.9183450000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>0.81627799999999995</v>
+      </c>
+      <c r="D59">
+        <v>0.1632556</v>
+      </c>
+      <c r="E59">
+        <v>4.4610960000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>1.5538261</v>
+      </c>
+      <c r="D60">
+        <v>0.25897101666666661</v>
+      </c>
+      <c r="E60">
+        <v>4.2680266666666684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>2.7309445000000001</v>
+      </c>
+      <c r="D61">
+        <v>0.39013492857142862</v>
+      </c>
+      <c r="E61">
+        <v>3.8732961000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1.8318972</v>
+      </c>
+      <c r="D62">
+        <v>0.22898715</v>
+      </c>
+      <c r="E62">
+        <v>4.1191053750000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>1.7804889100000001</v>
+      </c>
+      <c r="D63">
+        <v>0.1978321011111111</v>
+      </c>
+      <c r="E63">
+        <v>4.421914444444444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>0.303124</v>
+      </c>
+      <c r="D65">
+        <v>0.303124</v>
+      </c>
+      <c r="E65">
+        <v>4.5619300000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>3.0117260300000002</v>
+      </c>
+      <c r="D66">
+        <v>0.30117260299999998</v>
+      </c>
+      <c r="E66">
+        <v>3.2428780000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>4.3427624099999997</v>
+      </c>
+      <c r="D67">
+        <v>0.39479658272727269</v>
+      </c>
+      <c r="E67">
+        <v>3.6725681818181819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>3.2383551000000002</v>
+      </c>
+      <c r="D68">
+        <v>0.26986292499999998</v>
+      </c>
+      <c r="E68">
+        <v>3.1449295833333331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>4.2453552399999994</v>
+      </c>
+      <c r="D69">
+        <v>0.32656578769230771</v>
+      </c>
+      <c r="E69">
+        <v>3.532978238461538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>11.052332099999999</v>
+      </c>
+      <c r="D70">
+        <v>0.78945229285714291</v>
+      </c>
+      <c r="E70">
+        <v>3.7658245242857138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>6.1294384999999991</v>
+      </c>
+      <c r="D71">
+        <v>0.40862923333333329</v>
+      </c>
+      <c r="E71">
+        <v>3.8043230600000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>7.0936806999999993</v>
+      </c>
+      <c r="D72">
+        <v>0.44335504375000001</v>
+      </c>
+      <c r="E72">
+        <v>3.9112460312500001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>9.1337946999999993</v>
+      </c>
+      <c r="D73">
+        <v>0.53728204117647049</v>
+      </c>
+      <c r="E73">
+        <v>4.1771110529411768</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>4.6842918400000002</v>
+      </c>
+      <c r="D74">
+        <v>0.26023843555555559</v>
+      </c>
+      <c r="E74">
+        <v>3.761529422222222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>6.5074334800000013</v>
+      </c>
+      <c r="D75">
+        <v>0.34249649894736839</v>
+      </c>
+      <c r="E75">
+        <v>3.8332360052631569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>1.613245</v>
+      </c>
+      <c r="D76">
+        <v>0.80662250000000002</v>
+      </c>
+      <c r="E76">
+        <v>5.6524999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>18.122822899999999</v>
+      </c>
+      <c r="D77">
+        <v>0.90614114500000009</v>
+      </c>
+      <c r="E77">
+        <v>3.1619699849999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>5.4476416800000012</v>
+      </c>
+      <c r="D78">
+        <v>0.25941150857142858</v>
+      </c>
+      <c r="E78">
+        <v>3.3900276190476188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1.1859980000000001</v>
+      </c>
+      <c r="D79">
+        <v>0.39533266666666672</v>
+      </c>
+      <c r="E79">
+        <v>3.727030000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>2.635545</v>
+      </c>
+      <c r="D80">
+        <v>0.6588862499999999</v>
+      </c>
+      <c r="E80">
+        <v>4.2821775000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>3.2658529999999999</v>
+      </c>
+      <c r="D81">
+        <v>0.65317059999999993</v>
+      </c>
+      <c r="E81">
+        <v>3.1640831199999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>4.0007099999999998</v>
+      </c>
+      <c r="D82">
+        <v>0.66678499999999996</v>
+      </c>
+      <c r="E82">
+        <v>2.6426168333333329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>2.981509</v>
+      </c>
+      <c r="D83">
+        <v>0.42592985714285708</v>
+      </c>
+      <c r="E83">
+        <v>2.455850285714285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>3.5225344000000001</v>
+      </c>
+      <c r="D84">
+        <v>0.44031680000000001</v>
+      </c>
+      <c r="E84">
+        <v>2.3824830124999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>2.5582379999999998</v>
+      </c>
+      <c r="D85">
+        <v>0.28424866666666659</v>
+      </c>
+      <c r="E85">
+        <v>2.4390268888888889</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>0.39379199999999998</v>
+      </c>
+      <c r="D87">
+        <v>0.39379199999999998</v>
+      </c>
+      <c r="E87">
+        <v>9.4405600000000006E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>2.3307580899999998</v>
+      </c>
+      <c r="D88">
+        <v>0.23307580899999999</v>
+      </c>
+      <c r="E88">
+        <v>2.33374032</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>2.02205038</v>
+      </c>
+      <c r="D89">
+        <v>0.1838227618181818</v>
+      </c>
+      <c r="E89">
+        <v>3.0245781818181818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>2.6130368000000002</v>
+      </c>
+      <c r="D90">
+        <v>0.21775306666666661</v>
+      </c>
+      <c r="E90">
+        <v>3.0498408333333331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>2.7339656699999999</v>
+      </c>
+      <c r="D91">
+        <v>0.1952832621428571</v>
+      </c>
+      <c r="E91">
+        <v>2.8002942857142861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>5.47356453</v>
+      </c>
+      <c r="D92">
+        <v>0.36490430200000001</v>
+      </c>
+      <c r="E92">
+        <v>3.1167688266666671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>7.6768857339999999</v>
+      </c>
+      <c r="D93">
+        <v>0.47980535837499999</v>
+      </c>
+      <c r="E93">
+        <v>2.3620433812499999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>3.20259173</v>
+      </c>
+      <c r="D94">
+        <v>0.18838774882352941</v>
+      </c>
+      <c r="E94">
+        <v>2.5801708882352941</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>3.3345250499999999</v>
+      </c>
+      <c r="D95">
+        <v>0.18525139166666671</v>
+      </c>
+      <c r="E95">
+        <v>2.4900134833333332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>9.7478702970000004</v>
+      </c>
+      <c r="D96">
+        <v>0.51304580510526321</v>
+      </c>
+      <c r="E96">
+        <v>2.5983711910526321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>6.3508100000000001E-3</v>
+      </c>
+      <c r="D97">
+        <v>3.1754050000000001E-3</v>
+      </c>
+      <c r="E97">
+        <v>0.88927500000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>6.3672145000000002</v>
+      </c>
+      <c r="D98">
+        <v>0.31836072500000001</v>
+      </c>
+      <c r="E98">
+        <v>2.1800450599999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>5.3644653600000014</v>
+      </c>
+      <c r="D99">
+        <v>0.25545073142857139</v>
+      </c>
+      <c r="E99">
+        <v>2.6485991761904759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>9.579109999999999E-2</v>
+      </c>
+      <c r="D100">
+        <v>3.1930366666666661E-2</v>
+      </c>
+      <c r="E100">
+        <v>3.099393333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>0.54886499999999994</v>
+      </c>
+      <c r="D101">
+        <v>0.13721625000000001</v>
+      </c>
+      <c r="E101">
+        <v>3.0228577250000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>1.7427751</v>
+      </c>
+      <c r="D102">
+        <v>0.34855501999999999</v>
+      </c>
+      <c r="E102">
+        <v>3.2151955600000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>1.7282879600000001</v>
+      </c>
+      <c r="D103">
+        <v>0.28804799333333342</v>
+      </c>
+      <c r="E103">
+        <v>4.1864716666666668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>3.6017244000000002</v>
+      </c>
+      <c r="D104">
+        <v>0.51453205714285721</v>
+      </c>
+      <c r="E104">
+        <v>3.509784185714286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>3.0253771299999999</v>
+      </c>
+      <c r="D105">
+        <v>0.37817214124999998</v>
+      </c>
+      <c r="E105">
+        <v>3.34685275</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>2.7557</v>
+      </c>
+      <c r="D106">
+        <v>0.3061888888888889</v>
+      </c>
+      <c r="E106">
+        <v>2.7070772222222219</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="H1:L106">
+    <sortCondition ref="H1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>